--- a/excel2.xlsx
+++ b/excel2.xlsx
@@ -4,12 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr hidePivotFieldList="1"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="9000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="entreprise" sheetId="7" r:id="rId1"/>
     <sheet name="risques" sheetId="2" r:id="rId2"/>
-    <sheet name="nouveaux risque" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Nom de l’entreprise</t>
   </si>
@@ -55,25 +54,22 @@
     <t>Description brève des services/produits de l’entreprise</t>
   </si>
   <si>
-    <t>bc</t>
-  </si>
-  <si>
-    <t>xyz inc</t>
-  </si>
-  <si>
-    <t>tech park</t>
-  </si>
-  <si>
-    <t>example@bc.tech.com</t>
-  </si>
-  <si>
-    <t>b</t>
+    <t>adobe</t>
+  </si>
+  <si>
+    <t>Adobe Inc.</t>
+  </si>
+  <si>
+    <t>345 Park Avenue</t>
+  </si>
+  <si>
+    <t>ontact@adobe.com</t>
   </si>
   <si>
     <t>Technology</t>
   </si>
   <si>
-    <t>leading provider of tech solutions</t>
+    <t>Multinationale spécialisée dans le logiciel, le matériel informatique et les services en ligne.</t>
   </si>
   <si>
     <t>risque</t>
@@ -82,41 +78,14 @@
     <t>porcentage</t>
   </si>
   <si>
-    <t xml:space="preserve">Risque de dépendance
+    <t>Risque de réputation</t>
+  </si>
+  <si>
+    <t>Risque de dépendance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Défauts de sécurité des données
 </t>
-  </si>
-  <si>
-    <t>Conflits de communication</t>
-  </si>
-  <si>
-    <t>nom</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>coefficient</t>
-  </si>
-  <si>
-    <t>precaution</t>
-  </si>
-  <si>
-    <t>feffe1</t>
-  </si>
-  <si>
-    <t>efe</t>
-  </si>
-  <si>
-    <t>efef</t>
-  </si>
-  <si>
-    <t>ogogo1</t>
-  </si>
-  <si>
-    <t>fef</t>
-  </si>
-  <si>
-    <t>yhyh</t>
   </si>
 </sst>
 </file>
@@ -129,7 +98,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,17 +113,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="9.95"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -606,7 +582,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -615,128 +591,128 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -744,6 +720,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1065,17 +1046,18 @@
   <sheetPr/>
   <dimension ref="B2:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
     <col min="2" max="2" width="22.2222222222222" customWidth="1"/>
     <col min="3" max="3" width="19.8888888888889" customWidth="1"/>
+    <col min="8" max="8" width="9.22222222222222"/>
   </cols>
   <sheetData>
-    <row r="2" ht="151.8" spans="2:9">
+    <row r="2" ht="138" spans="2:9">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1111,23 +1093,26 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" s="5">
+        <v>75520000000</v>
+      </c>
+      <c r="I3" t="s">
         <v>13</v>
-      </c>
-      <c r="H3">
-        <v>2000000</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" display="ontact@adobe.com" tooltip="mailto:ontact@adobe.com"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1136,13 +1121,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:C4"/>
+  <dimension ref="B2:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="22.2222222222222" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
@@ -1150,91 +1135,34 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" ht="28.8" spans="2:3">
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C3">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" ht="39.6" spans="2:3">
+      <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C4">
-        <v>90</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B2:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
-  <cols>
-    <col min="2" max="2" width="16.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="18.5555555555556" customWidth="1"/>
-    <col min="4" max="4" width="15.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="18.6666666666667" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4">
-        <v>95</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
+      <c r="C5">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/excel2.xlsx
+++ b/excel2.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr hidePivotFieldList="1"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000" activeTab="1"/>
+    <workbookView windowWidth="11520" windowHeight="9000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="entreprise" sheetId="7" r:id="rId1"/>
     <sheet name="risques" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Nom de l’entreprise</t>
   </si>
@@ -54,22 +56,22 @@
     <t>Description brève des services/produits de l’entreprise</t>
   </si>
   <si>
-    <t>adobe</t>
-  </si>
-  <si>
-    <t>Adobe Inc.</t>
-  </si>
-  <si>
-    <t>345 Park Avenue</t>
-  </si>
-  <si>
-    <t>ontact@adobe.com</t>
-  </si>
-  <si>
-    <t>Technology</t>
-  </si>
-  <si>
-    <t>Multinationale spécialisée dans le logiciel, le matériel informatique et les services en ligne.</t>
+    <t>MTN Group</t>
+  </si>
+  <si>
+    <t>MTN Group Limited</t>
+  </si>
+  <si>
+    <t>216 14th Avenue, Fairland, Johannesburg, 2195, South Africa</t>
+  </si>
+  <si>
+    <t>info@mtn.com</t>
+  </si>
+  <si>
+    <t>Telecommunications</t>
+  </si>
+  <si>
+    <t>Multinationale spécialisée dans les télécommunications, offrant des services de téléphonie mobile, de données et des solutions numériques à travers l'Afrique et le Moyen-Orient.</t>
   </si>
   <si>
     <t>risque</t>
@@ -86,6 +88,57 @@
   <si>
     <t xml:space="preserve">Défauts de sécurité des données
 </t>
+  </si>
+  <si>
+    <t>nom</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>coefficient</t>
+  </si>
+  <si>
+    <t>precaution</t>
+  </si>
+  <si>
+    <t>feffe1</t>
+  </si>
+  <si>
+    <t>efe</t>
+  </si>
+  <si>
+    <t>efef</t>
+  </si>
+  <si>
+    <t>ogogo1</t>
+  </si>
+  <si>
+    <t>fef</t>
+  </si>
+  <si>
+    <t>yhyh</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>Ralph Mupita</t>
+  </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>Tsholofelo Molefe</t>
+  </si>
+  <si>
+    <t>CFO</t>
+  </si>
+  <si>
+    <t>Bernice Samuels​</t>
+  </si>
+  <si>
+    <t>CMO</t>
   </si>
 </sst>
 </file>
@@ -122,15 +175,15 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,12 +635,12 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -712,7 +765,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -723,8 +776,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1046,18 +1098,18 @@
   <sheetPr/>
   <dimension ref="B2:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
     <col min="2" max="2" width="22.2222222222222" customWidth="1"/>
     <col min="3" max="3" width="19.8888888888889" customWidth="1"/>
-    <col min="8" max="8" width="9.22222222222222"/>
+    <col min="8" max="8" width="14.5555555555556"/>
   </cols>
   <sheetData>
-    <row r="2" ht="138" spans="2:9">
+    <row r="2" ht="151.8" spans="2:9">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1093,7 +1145,7 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
@@ -1102,17 +1154,14 @@
       <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="5">
-        <v>75520000000</v>
+      <c r="H3" s="4">
+        <v>10255000000</v>
       </c>
       <c r="I3" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" display="ontact@adobe.com" tooltip="mailto:ontact@adobe.com"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1123,7 +1172,7 @@
   <sheetPr/>
   <dimension ref="B2:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1169,4 +1218,125 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="16.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="16.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="15.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="18.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="8.44444444444444" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="27.6" spans="2:5">
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>95</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="22.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="13.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="19.1111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>